--- a/users.xlsx
+++ b/users.xlsx
@@ -560,7 +560,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
